--- a/svn/config/menu.xlsx
+++ b/svn/config/menu.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zengfeng/workspaces/www/githubpages/ihaiu.UnityGameFrame/svn/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zengfeng\github\ihaiu.UnityGameEngine4\svn\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="12640"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>Microsoft Office 用户</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,14 +208,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="G1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="81"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
        /** 不关闭任何面板 */
@@ -229,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="H1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +237,7 @@
             <sz val="11"/>
             <color indexed="81"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>关闭面板后缓存多长时间销毁
 -1永久不销毁 
@@ -246,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -619,10 +619,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>layout</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -644,14 +640,18 @@
   </si>
   <si>
     <t>loadType</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuType</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,14 +707,14 @@
       <sz val="11"/>
       <color indexed="81"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="81"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -751,6 +751,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1046,20 +1049,20 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="55" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="9" width="20.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,16 +1082,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1099,25 +1102,25 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>13</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>15</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>20</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>21</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>22</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>23</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>24</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>25</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>26</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>27</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>28</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>29</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>30</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>31</v>
       </c>
@@ -1608,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>32</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>33</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>36</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>37</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>38</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>39</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>110</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>40</v>
       </c>
@@ -1816,7 +1819,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>